--- a/biology/Zoologie/Girafe_d'Angola/Girafe_d'Angola.xlsx
+++ b/biology/Zoologie/Girafe_d'Angola/Girafe_d'Angola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Girafe_d%27Angola</t>
+          <t>Girafe_d'Angola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giraffa camelopardalis angolensis, Giraffa giraffa angolensis
 La Girafe d'Angola est une sous-espèce de girafe qui vit surtout en Namibie et au Botswana mais qu'on trouve aussi à la frontière entre l'Angola et la Zambie.
-On attribue cette sous-espèce, soit à l'espèce Giraffa camelopardalis (classification traditionnelle) sous le nom G. c. angolensis, soit à Giraffa giraffa (espèce proposée) sous le nom G. g. angolensis[1],[2].
+On attribue cette sous-espèce, soit à l'espèce Giraffa camelopardalis (classification traditionnelle) sous le nom G. c. angolensis, soit à Giraffa giraffa (espèce proposée) sous le nom G. g. angolensis,.
 </t>
         </is>
       </c>
